--- a/biology/Zoologie/Diamant_de_Kittlitz/Diamant_de_Kittlitz.xlsx
+++ b/biology/Zoologie/Diamant_de_Kittlitz/Diamant_de_Kittlitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrura trichroa
 Le Diamant de Kittlitz, Diamant tricolore ou Pape de Kittlitz (Erythrura trichroa) est une espèce d'oiseaux appartenant à la famille des Estrildidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure environ de 11 à 14 cm. Il a le front, les joues et les côtés de la tête bleu plus ou moins foncé. Le menton, la gorge, la poitrine, le ventre sont verts (parfois nuancé de jaune), et il a la nuque, le dos et les ailes vert plus ou moins foncé (pas de nuance de jaune). Il a le croupion et la queue rouge.
 La femelle a le masque moins étendu que le mâle mais le dimorphisme sexuel est minime. Seul le mâle chante.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve au nord-est de l'Australie, au Japon, Indonésie, États fédérés de Micronésie, France (introduit), Nouvelle-Calédonie, Palaos, Papouasie-Nouvelle-Guinée, îles Salomon et Vanuatu.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en groupe dans les forêts où ses couleurs le camouflent.
 </t>
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de diverses graines, en particulier de graminées.
 </t>
@@ -637,7 +657,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sous-espèces du Diamant de Kittlitz sont:
 Erythrura trichroa trichroa ;
@@ -679,15 +701,51 @@
           <t>Mutations et modifications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En dehors de la nature, les éleveurs ont obtenu une mutation appelée "lutino" ; les diamants de Kittlitz lutinos ont leur masque blanc, leur corps jaune, leur queue plutôt rose et les yeux rouges. Cette mutation est apparue en 1982.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En dehors de la nature, les éleveurs ont obtenu une mutation appelée "lutino" ; les diamants de Kittlitz lutinos ont leur masque blanc, leur corps jaune, leur queue plutôt rose et les yeux rouges. Cette mutation est apparue en 1982.
 Plusieurs autres modifications ont été obtenues par les éleveurs. Celles-ci sont :
 vert de mer : la coloration verte de l'oiseau est devenue vert de mer et sa queue orangée ;
 panaché ;
-ventre jaune.
-Variété domestique
-Seul un individu de variété lutino, issu d'élevage, est considéré comme étant un animal domestique en droit français. Les autres formes de cet oiseau relèvent donc de la législation concernant les animaux sauvages[1].
+ventre jaune.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diamant_de_Kittlitz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_de_Kittlitz</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mutations et modifications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Variété domestique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seul un individu de variété lutino, issu d'élevage, est considéré comme étant un animal domestique en droit français. Les autres formes de cet oiseau relèvent donc de la législation concernant les animaux sauvages.
 </t>
         </is>
       </c>
